--- a/data/metadata_table_032020.xlsx
+++ b/data/metadata_table_032020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurajackson/J99_nextstrain4/J99_nextstrain/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurajackson/J99_nextstrain4/J99_nextstrain/Hp-J99/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{65439561-0C76-0B44-95E7-1B356CC0780E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2F641F0D-BF65-5845-B05D-C041B1143AB7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9900" yWindow="460" windowWidth="25440" windowHeight="14880"/>
+    <workbookView xWindow="160" yWindow="460" windowWidth="25440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020_03_23_metadata4" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="445" uniqueCount="89">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="443" uniqueCount="87">
   <si>
     <t>strain</t>
   </si>
@@ -51,9 +51,6 @@
     <t>location</t>
   </si>
   <si>
-    <t>db</t>
-  </si>
-  <si>
     <t>sub_group</t>
   </si>
   <si>
@@ -295,15 +292,12 @@
   </si>
   <si>
     <t>D5</t>
-  </si>
-  <si>
-    <t>average_coverage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1138,19 +1132,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q44"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="7" max="7" width="17.1640625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1170,1962 +1161,1896 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="d">
         <v>2000-07-01</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="G2">
-        <v>167.00739999999999</v>
+      <c r="H2">
+        <v>1.56</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="J2">
-        <v>1.56</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="J2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K2">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="L2">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="M2" t="s">
         <v>23</v>
       </c>
-      <c r="M2">
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="N2">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="N2" t="s">
         <v>24</v>
       </c>
-      <c r="P2" t="s">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="d">
         <v>2000-07-01</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3">
-        <v>140.5104</v>
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3">
+        <v>1.45</v>
       </c>
       <c r="I3" t="s">
         <v>27</v>
       </c>
-      <c r="J3">
-        <v>1.45</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="L3">
+        <v>0.126</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" t="s">
         <v>28</v>
       </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="N3">
-        <v>0.126</v>
-      </c>
-      <c r="O3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" t="s">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="d">
         <v>2000-07-01</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4">
-        <v>188.95400000000001</v>
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4">
+        <v>1.5</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4">
-        <v>1.5</v>
-      </c>
-      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="L4">
+        <v>0.13</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>31</v>
       </c>
-      <c r="L4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4">
-        <v>1.0669999999999999</v>
-      </c>
-      <c r="N4">
-        <v>0.13</v>
-      </c>
-      <c r="O4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="d">
         <v>2000-07-01</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5">
-        <v>105.9029</v>
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5">
+        <v>1.38</v>
       </c>
       <c r="I5" t="s">
         <v>27</v>
       </c>
-      <c r="J5">
-        <v>1.38</v>
-      </c>
-      <c r="K5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5">
+        <v>0.63</v>
+      </c>
+      <c r="L5">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="M5" t="s">
         <v>23</v>
       </c>
-      <c r="M5">
-        <v>0.63</v>
-      </c>
-      <c r="N5">
-        <v>0.14299999999999999</v>
+      <c r="N5" t="s">
+        <v>24</v>
       </c>
       <c r="O5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="d">
         <v>2000-07-01</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6">
-        <v>172.27940000000001</v>
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6">
+        <v>1.33</v>
       </c>
       <c r="I6" t="s">
         <v>27</v>
       </c>
-      <c r="J6">
-        <v>1.33</v>
-      </c>
-      <c r="K6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="L6">
+        <v>0.15</v>
+      </c>
+      <c r="M6" t="s">
         <v>23</v>
       </c>
-      <c r="M6">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="N6">
-        <v>0.15</v>
+      <c r="N6" t="s">
+        <v>24</v>
       </c>
       <c r="O6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="d">
         <v>2000-07-01</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7">
-        <v>152.77529999999999</v>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7">
+        <v>1.27</v>
       </c>
       <c r="I7" t="s">
         <v>27</v>
       </c>
-      <c r="J7">
-        <v>1.27</v>
-      </c>
-      <c r="K7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7">
+        <v>0.505</v>
+      </c>
+      <c r="L7">
+        <v>0.125</v>
+      </c>
+      <c r="M7" t="s">
         <v>23</v>
       </c>
-      <c r="M7">
-        <v>0.505</v>
-      </c>
-      <c r="N7">
-        <v>0.125</v>
+      <c r="N7" t="s">
+        <v>24</v>
       </c>
       <c r="O7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="d">
         <v>2000-07-01</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
         <v>20</v>
       </c>
-      <c r="G8">
-        <v>47.470440000000004</v>
+      <c r="H8">
+        <v>1.45</v>
       </c>
       <c r="I8" t="s">
         <v>21</v>
       </c>
-      <c r="J8">
-        <v>1.45</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s">
         <v>22</v>
       </c>
-      <c r="L8" t="s">
+      <c r="K8">
+        <v>1.2689999999999999</v>
+      </c>
+      <c r="L8">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="M8" t="s">
         <v>23</v>
       </c>
-      <c r="M8">
-        <v>1.2689999999999999</v>
-      </c>
-      <c r="N8">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="N8" t="s">
         <v>24</v>
       </c>
-      <c r="P8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="d">
         <v>2000-07-01</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9">
-        <v>106.28400000000001</v>
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <v>1.47</v>
       </c>
       <c r="I9" t="s">
         <v>27</v>
       </c>
-      <c r="J9">
-        <v>1.47</v>
-      </c>
-      <c r="K9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>0.254</v>
+      </c>
+      <c r="L9">
+        <v>0.114</v>
+      </c>
+      <c r="M9" t="s">
         <v>23</v>
       </c>
-      <c r="M9">
-        <v>0.254</v>
-      </c>
-      <c r="N9">
-        <v>0.114</v>
+      <c r="N9" t="s">
+        <v>24</v>
       </c>
       <c r="O9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="d">
         <v>2000-07-01</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
         <v>20</v>
       </c>
-      <c r="G10">
-        <v>178.56469999999999</v>
+      <c r="H10">
+        <v>1.02</v>
       </c>
       <c r="I10" t="s">
         <v>21</v>
       </c>
-      <c r="J10">
-        <v>1.02</v>
-      </c>
-      <c r="K10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="J10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10">
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="L10">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="M10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>42</v>
       </c>
-      <c r="M10">
-        <v>1.2450000000000001</v>
-      </c>
-      <c r="N10">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="O10" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="d">
         <v>2000-07-01</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11">
-        <v>155.07919999999999</v>
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11">
+        <v>1.1000000000000001</v>
       </c>
       <c r="I11" t="s">
         <v>27</v>
       </c>
-      <c r="J11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="L11">
+        <v>0.114</v>
+      </c>
+      <c r="M11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" t="s">
         <v>28</v>
       </c>
-      <c r="L11" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="N11">
-        <v>0.114</v>
-      </c>
-      <c r="O11" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1" t="d">
         <v>2000-07-01</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
         <v>20</v>
       </c>
-      <c r="G12">
-        <v>95.712540000000004</v>
+      <c r="H12">
+        <v>1.32</v>
       </c>
       <c r="I12" t="s">
         <v>21</v>
       </c>
-      <c r="J12">
-        <v>1.32</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12" t="s">
         <v>22</v>
       </c>
-      <c r="L12" t="s">
+      <c r="K12">
+        <v>1.2430000000000001</v>
+      </c>
+      <c r="L12">
+        <v>0.308</v>
+      </c>
+      <c r="M12" t="s">
         <v>23</v>
       </c>
-      <c r="M12">
-        <v>1.2430000000000001</v>
-      </c>
-      <c r="N12">
-        <v>0.308</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="N12" t="s">
         <v>24</v>
       </c>
-      <c r="P12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1" t="d">
         <v>2000-07-01</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13">
-        <v>164.95699999999999</v>
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13">
+        <v>1.37</v>
       </c>
       <c r="I13" t="s">
         <v>27</v>
       </c>
-      <c r="J13">
-        <v>1.37</v>
-      </c>
-      <c r="K13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="L13">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="M13" t="s">
         <v>23</v>
       </c>
-      <c r="M13">
-        <v>0.47299999999999998</v>
-      </c>
-      <c r="N13">
-        <v>0.14199999999999999</v>
+      <c r="N13" t="s">
+        <v>24</v>
       </c>
       <c r="O13" t="s">
-        <v>24</v>
-      </c>
-      <c r="P13" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1" t="d">
         <v>2000-07-01</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
         <v>20</v>
+      </c>
+      <c r="H14">
+        <v>1.1499999999999999</v>
       </c>
       <c r="I14" t="s">
         <v>21</v>
       </c>
-      <c r="J14">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="K14" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" t="s">
-        <v>42</v>
-      </c>
-      <c r="M14">
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14">
         <v>1.0089999999999999</v>
       </c>
-      <c r="N14">
+      <c r="L14">
         <v>0.30199999999999999</v>
       </c>
-      <c r="O14" t="s">
+      <c r="M14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" t="s">
         <v>24</v>
       </c>
-      <c r="P14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="d">
         <v>2000-07-01</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15">
+        <v>1.25</v>
       </c>
       <c r="I15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15">
-        <v>1.25</v>
-      </c>
-      <c r="K15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
         <v>22</v>
       </c>
-      <c r="L15" t="s">
+      <c r="K15">
+        <v>1.079</v>
+      </c>
+      <c r="L15">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="M15" t="s">
         <v>23</v>
       </c>
-      <c r="M15">
-        <v>1.079</v>
-      </c>
-      <c r="N15">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="N15" t="s">
         <v>24</v>
       </c>
-      <c r="P15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1" t="d">
         <v>2000-07-01</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16">
+        <v>1.32</v>
       </c>
       <c r="I16" t="s">
         <v>27</v>
       </c>
-      <c r="J16">
-        <v>1.32</v>
-      </c>
-      <c r="K16" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="J16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="L16">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="M16" t="s">
         <v>23</v>
       </c>
-      <c r="M16">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="N16">
-        <v>0.14899999999999999</v>
+      <c r="N16" t="s">
+        <v>24</v>
       </c>
       <c r="O16" t="s">
-        <v>24</v>
-      </c>
-      <c r="P16" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1" t="d">
         <v>2000-07-01</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17">
+        <v>1.46</v>
       </c>
       <c r="I17" t="s">
         <v>27</v>
       </c>
-      <c r="J17">
-        <v>1.46</v>
-      </c>
-      <c r="K17" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" t="s">
+      <c r="J17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="L17">
+        <v>0.155</v>
+      </c>
+      <c r="M17" t="s">
         <v>23</v>
       </c>
-      <c r="M17">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="N17">
-        <v>0.155</v>
+      <c r="N17" t="s">
+        <v>24</v>
       </c>
       <c r="O17" t="s">
-        <v>24</v>
-      </c>
-      <c r="P17" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1" t="d">
         <v>2000-07-01</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
         <v>20</v>
+      </c>
+      <c r="H18">
+        <v>1.0900000000000001</v>
       </c>
       <c r="I18" t="s">
         <v>21</v>
       </c>
-      <c r="J18">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="K18" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" t="s">
-        <v>42</v>
-      </c>
-      <c r="M18">
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18">
         <v>0.754</v>
       </c>
-      <c r="N18">
+      <c r="L18">
         <v>0.247</v>
       </c>
-      <c r="O18" t="s">
+      <c r="M18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" t="s">
         <v>24</v>
       </c>
-      <c r="P18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="d">
         <v>2000-07-01</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" t="s">
         <v>20</v>
+      </c>
+      <c r="H19">
+        <v>1.21</v>
       </c>
       <c r="I19" t="s">
         <v>21</v>
       </c>
-      <c r="J19">
-        <v>1.21</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="J19" t="s">
         <v>22</v>
       </c>
-      <c r="L19" t="s">
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="M19" t="s">
         <v>23</v>
       </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="N19" t="s">
         <v>24</v>
       </c>
-      <c r="P19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="1" t="d">
         <v>2000-07-01</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20">
+        <v>1.0900000000000001</v>
       </c>
       <c r="I20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="K20" t="s">
-        <v>31</v>
-      </c>
-      <c r="L20" t="s">
-        <v>42</v>
-      </c>
-      <c r="M20">
+        <v>30</v>
+      </c>
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20">
         <v>1.569</v>
       </c>
-      <c r="N20">
+      <c r="L20">
         <v>0.158</v>
       </c>
-      <c r="O20" t="s">
+      <c r="M20" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" t="s">
         <v>24</v>
       </c>
-      <c r="P20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="1" t="d">
         <v>2000-07-01</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
         <v>20</v>
+      </c>
+      <c r="H21">
+        <v>1.1599999999999999</v>
       </c>
       <c r="I21" t="s">
         <v>21</v>
       </c>
-      <c r="J21">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="K21" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" t="s">
-        <v>42</v>
-      </c>
-      <c r="M21">
+      <c r="J21" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21">
         <v>0.92</v>
       </c>
-      <c r="N21">
+      <c r="L21">
         <v>0.28000000000000003</v>
       </c>
-      <c r="O21" t="s">
+      <c r="M21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" t="s">
         <v>24</v>
       </c>
-      <c r="P21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="1" t="d">
         <v>2000-07-01</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s">
         <v>20</v>
+      </c>
+      <c r="H22">
+        <v>1.04</v>
       </c>
       <c r="I22" t="s">
         <v>21</v>
       </c>
-      <c r="J22">
+      <c r="J22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22">
         <v>1.04</v>
       </c>
-      <c r="K22" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" t="s">
-        <v>42</v>
-      </c>
-      <c r="M22">
-        <v>1.04</v>
-      </c>
-      <c r="N22">
+      <c r="L22">
         <v>0.27900000000000003</v>
       </c>
-      <c r="O22" t="s">
+      <c r="M22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" t="s">
         <v>24</v>
       </c>
-      <c r="P22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1" t="d">
         <v>2000-07-01</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s">
         <v>20</v>
+      </c>
+      <c r="H23">
+        <v>0.94</v>
       </c>
       <c r="I23" t="s">
         <v>21</v>
       </c>
-      <c r="J23">
-        <v>0.94</v>
-      </c>
-      <c r="K23" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="J23" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="L23">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="M23" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>60</v>
       </c>
-      <c r="M23">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="N23">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="O23" t="s">
-        <v>24</v>
-      </c>
-      <c r="P23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>61</v>
-      </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="1" t="d">
         <v>2000-07-01</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" t="s">
         <v>20</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
       </c>
       <c r="I24" t="s">
         <v>21</v>
       </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" t="s">
-        <v>42</v>
-      </c>
-      <c r="M24">
+      <c r="J24" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24">
         <v>1.0669999999999999</v>
       </c>
-      <c r="N24">
+      <c r="L24">
         <v>0.246</v>
       </c>
-      <c r="O24" t="s">
+      <c r="M24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" t="s">
         <v>24</v>
       </c>
-      <c r="P24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="1" t="d">
         <v>2000-07-01</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25">
+        <v>1.48</v>
       </c>
       <c r="I25" t="s">
         <v>27</v>
       </c>
-      <c r="J25">
-        <v>1.48</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="J25" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25">
+        <v>0.439</v>
+      </c>
+      <c r="L25">
+        <v>0.115</v>
+      </c>
+      <c r="M25" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" t="s">
+        <v>24</v>
+      </c>
+      <c r="O25" t="s">
         <v>28</v>
       </c>
-      <c r="L25" t="s">
-        <v>23</v>
-      </c>
-      <c r="M25">
-        <v>0.439</v>
-      </c>
-      <c r="N25">
-        <v>0.115</v>
-      </c>
-      <c r="O25" t="s">
-        <v>24</v>
-      </c>
-      <c r="P25" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="1" t="d">
         <v>1994-07-01</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="G26" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
       </c>
       <c r="I26" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="L26">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="M26" t="s">
         <v>64</v>
       </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26" t="s">
-        <v>31</v>
-      </c>
-      <c r="L26" t="s">
-        <v>42</v>
-      </c>
-      <c r="M26">
-        <v>1.0229999999999999</v>
-      </c>
-      <c r="N26">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="O26" t="s">
+      <c r="N26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>65</v>
       </c>
-      <c r="P26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>66</v>
-      </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="1" t="d">
         <v>1994-07-01</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27">
-        <v>3.3673359999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" s="1" t="d">
         <v>1994-07-01</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28">
-        <v>91.46217</v>
+        <v>19</v>
+      </c>
+      <c r="G28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28">
+        <v>0.93</v>
       </c>
       <c r="I28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" t="s">
+        <v>59</v>
+      </c>
+      <c r="K28">
+        <v>1.0569999999999999</v>
+      </c>
+      <c r="L28">
+        <v>0.186</v>
+      </c>
+      <c r="M28" t="s">
         <v>64</v>
       </c>
-      <c r="J28">
-        <v>0.93</v>
-      </c>
-      <c r="K28" t="s">
-        <v>31</v>
-      </c>
-      <c r="L28" t="s">
-        <v>60</v>
-      </c>
-      <c r="M28">
-        <v>1.0569999999999999</v>
-      </c>
-      <c r="N28">
-        <v>0.186</v>
-      </c>
-      <c r="O28" t="s">
-        <v>65</v>
-      </c>
-      <c r="P28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="1" t="d">
         <v>1994-07-01</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="G29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29">
+        <v>1.2</v>
       </c>
       <c r="I29" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29">
+        <v>0.749</v>
+      </c>
+      <c r="L29">
+        <v>0.152</v>
+      </c>
+      <c r="M29" t="s">
         <v>64</v>
       </c>
-      <c r="J29">
-        <v>1.2</v>
-      </c>
-      <c r="K29" t="s">
-        <v>31</v>
-      </c>
-      <c r="L29" t="s">
-        <v>42</v>
-      </c>
-      <c r="M29">
-        <v>0.749</v>
-      </c>
-      <c r="N29">
-        <v>0.152</v>
-      </c>
-      <c r="O29" t="s">
-        <v>65</v>
-      </c>
-      <c r="P29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" s="1" t="d">
         <v>1994-07-01</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30">
-        <v>119.908</v>
+        <v>19</v>
+      </c>
+      <c r="G30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30">
+        <v>0.88</v>
       </c>
       <c r="I30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" t="s">
+        <v>59</v>
+      </c>
+      <c r="K30">
+        <v>1.016</v>
+      </c>
+      <c r="L30">
+        <v>0.216</v>
+      </c>
+      <c r="M30" t="s">
+        <v>24</v>
+      </c>
+      <c r="N30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>70</v>
       </c>
-      <c r="J30">
-        <v>0.88</v>
-      </c>
-      <c r="K30" t="s">
-        <v>31</v>
-      </c>
-      <c r="L30" t="s">
-        <v>60</v>
-      </c>
-      <c r="M30">
-        <v>1.016</v>
-      </c>
-      <c r="N30">
-        <v>0.216</v>
-      </c>
-      <c r="O30" t="s">
-        <v>25</v>
-      </c>
-      <c r="P30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>71</v>
-      </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31" s="1" t="d">
         <v>1994-07-01</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="G31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31">
+        <v>1.17</v>
       </c>
       <c r="I31" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="L31">
+        <v>0.159</v>
+      </c>
+      <c r="M31" t="s">
         <v>64</v>
       </c>
-      <c r="J31">
-        <v>1.17</v>
-      </c>
-      <c r="K31" t="s">
-        <v>31</v>
-      </c>
-      <c r="L31" t="s">
-        <v>42</v>
-      </c>
-      <c r="M31">
-        <v>0.77400000000000002</v>
-      </c>
-      <c r="N31">
-        <v>0.159</v>
-      </c>
-      <c r="O31" t="s">
-        <v>65</v>
-      </c>
-      <c r="P31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" s="1" t="d">
         <v>1994-07-01</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="G32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
       </c>
       <c r="I32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" t="s">
+        <v>59</v>
+      </c>
+      <c r="K32">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="L32">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="M32" t="s">
         <v>64</v>
       </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32" t="s">
-        <v>31</v>
-      </c>
-      <c r="L32" t="s">
-        <v>60</v>
-      </c>
-      <c r="M32">
-        <v>0.93300000000000005</v>
-      </c>
-      <c r="N32">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="O32" t="s">
-        <v>65</v>
-      </c>
-      <c r="P32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="1" t="d">
         <v>1994-07-01</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="G33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33">
+        <v>1.19</v>
       </c>
       <c r="I33" t="s">
+        <v>30</v>
+      </c>
+      <c r="J33" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="L33">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="M33" t="s">
         <v>64</v>
       </c>
-      <c r="J33">
-        <v>1.19</v>
-      </c>
-      <c r="K33" t="s">
-        <v>31</v>
-      </c>
-      <c r="L33" t="s">
-        <v>42</v>
-      </c>
-      <c r="M33">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="N33">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="O33" t="s">
-        <v>65</v>
-      </c>
-      <c r="P33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" s="1" t="d">
         <v>1994-07-01</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="G34" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34">
+        <v>1.1299999999999999</v>
       </c>
       <c r="I34" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" t="s">
+        <v>41</v>
+      </c>
+      <c r="K34">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="L34">
+        <v>0.17</v>
+      </c>
+      <c r="M34" t="s">
         <v>64</v>
       </c>
-      <c r="J34">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="K34" t="s">
-        <v>31</v>
-      </c>
-      <c r="L34" t="s">
-        <v>42</v>
-      </c>
-      <c r="M34">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="N34">
-        <v>0.17</v>
-      </c>
-      <c r="O34" t="s">
-        <v>65</v>
-      </c>
-      <c r="P34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35" s="1" t="d">
         <v>1994-07-01</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="G35" t="s">
+        <v>63</v>
+      </c>
+      <c r="H35">
+        <v>1.08</v>
       </c>
       <c r="I35" t="s">
+        <v>30</v>
+      </c>
+      <c r="J35" t="s">
+        <v>41</v>
+      </c>
+      <c r="K35">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L35">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="M35" t="s">
         <v>64</v>
       </c>
-      <c r="J35">
-        <v>1.08</v>
-      </c>
-      <c r="K35" t="s">
-        <v>31</v>
-      </c>
-      <c r="L35" t="s">
-        <v>42</v>
-      </c>
-      <c r="M35">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="N35">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="O35" t="s">
-        <v>65</v>
-      </c>
-      <c r="P35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" s="1" t="d">
         <v>1994-07-01</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="G36" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36">
+        <v>0.96</v>
       </c>
       <c r="I36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J36" t="s">
+        <v>59</v>
+      </c>
+      <c r="K36">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L36">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="M36" t="s">
         <v>64</v>
       </c>
-      <c r="J36">
-        <v>0.96</v>
-      </c>
-      <c r="K36" t="s">
-        <v>31</v>
-      </c>
-      <c r="L36" t="s">
-        <v>60</v>
-      </c>
-      <c r="M36">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="N36">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="O36" t="s">
-        <v>65</v>
-      </c>
-      <c r="P36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37" s="1" t="d">
         <v>1994-07-01</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="G37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
       </c>
       <c r="I37" t="s">
+        <v>30</v>
+      </c>
+      <c r="J37" t="s">
+        <v>59</v>
+      </c>
+      <c r="K37">
+        <v>1.121</v>
+      </c>
+      <c r="L37">
+        <v>0.182</v>
+      </c>
+      <c r="M37" t="s">
         <v>64</v>
       </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37" t="s">
-        <v>31</v>
-      </c>
-      <c r="L37" t="s">
-        <v>60</v>
-      </c>
-      <c r="M37">
-        <v>1.121</v>
-      </c>
-      <c r="N37">
-        <v>0.182</v>
-      </c>
-      <c r="O37" t="s">
-        <v>65</v>
-      </c>
-      <c r="P37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" s="1" t="d">
         <v>1994-07-01</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="G38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H38">
+        <v>1.05</v>
       </c>
       <c r="I38" t="s">
+        <v>30</v>
+      </c>
+      <c r="J38" t="s">
+        <v>41</v>
+      </c>
+      <c r="K38">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="L38">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="M38" t="s">
         <v>64</v>
       </c>
-      <c r="J38">
-        <v>1.05</v>
-      </c>
-      <c r="K38" t="s">
-        <v>31</v>
-      </c>
-      <c r="L38" t="s">
-        <v>42</v>
-      </c>
-      <c r="M38">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="N38">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="O38" t="s">
-        <v>65</v>
-      </c>
-      <c r="P38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="1" t="d">
         <v>2000-07-01</v>
       </c>
       <c r="D39" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39">
+        <v>1.35</v>
+      </c>
+      <c r="I39" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="L39">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="M39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>80</v>
       </c>
-      <c r="E39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39">
-        <v>1.35</v>
-      </c>
-      <c r="K39" t="s">
-        <v>22</v>
-      </c>
-      <c r="L39" t="s">
-        <v>23</v>
-      </c>
-      <c r="M39">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="N39">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="O39" t="s">
-        <v>24</v>
-      </c>
-      <c r="P39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>81</v>
-      </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C40" s="1" t="d">
         <v>2000-07-01</v>
       </c>
       <c r="D40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" t="s">
         <v>20</v>
       </c>
-      <c r="G40">
-        <v>86.962140000000005</v>
+      <c r="H40">
+        <v>1.5</v>
       </c>
       <c r="I40" t="s">
         <v>21</v>
       </c>
-      <c r="J40">
-        <v>1.5</v>
-      </c>
-      <c r="K40" t="s">
+      <c r="J40" t="s">
         <v>22</v>
       </c>
-      <c r="L40" t="s">
+      <c r="K40">
+        <v>1.149</v>
+      </c>
+      <c r="L40">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="M40" t="s">
         <v>23</v>
       </c>
-      <c r="M40">
-        <v>1.149</v>
-      </c>
-      <c r="N40">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="O40" t="s">
+      <c r="N40" t="s">
         <v>24</v>
       </c>
-      <c r="P40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" s="1" t="d">
         <v>2000-07-01</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41">
-        <v>125.3843</v>
+        <v>19</v>
+      </c>
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41">
+        <v>1.31</v>
       </c>
       <c r="I41" t="s">
-        <v>27</v>
-      </c>
-      <c r="J41">
-        <v>1.31</v>
-      </c>
-      <c r="K41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" t="s">
         <v>22</v>
       </c>
-      <c r="L41" t="s">
+      <c r="K41">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="L41">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="M41" t="s">
         <v>23</v>
       </c>
-      <c r="M41">
-        <v>0.83099999999999996</v>
-      </c>
-      <c r="N41">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="O41" t="s">
+      <c r="N41" t="s">
         <v>24</v>
       </c>
-      <c r="P41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C42" s="1" t="d">
         <v>2000-07-01</v>
       </c>
       <c r="D42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42">
-        <v>7.8745529999999997</v>
-      </c>
-      <c r="J42">
+        <v>19</v>
+      </c>
+      <c r="H42">
         <v>1.42</v>
       </c>
-      <c r="K42" t="s">
+      <c r="I42" t="s">
+        <v>84</v>
+      </c>
+      <c r="J42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>85</v>
       </c>
-      <c r="L42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>86</v>
-      </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43" s="1" t="d">
         <v>2000-07-01</v>
       </c>
       <c r="D43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43">
-        <v>131.0103</v>
+        <v>19</v>
+      </c>
+      <c r="G43" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43">
+        <v>1.21</v>
       </c>
       <c r="I43" t="s">
-        <v>27</v>
-      </c>
-      <c r="J43">
-        <v>1.21</v>
-      </c>
-      <c r="K43" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" t="s">
         <v>22</v>
       </c>
-      <c r="L43" t="s">
+      <c r="K43">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="L43">
+        <v>0.254</v>
+      </c>
+      <c r="M43" t="s">
         <v>23</v>
       </c>
-      <c r="M43">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="N43">
-        <v>0.254</v>
-      </c>
-      <c r="O43" t="s">
+      <c r="N43" t="s">
         <v>24</v>
       </c>
-      <c r="P43" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C44" s="1" t="d">
         <v>2000-07-01</v>
       </c>
       <c r="D44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44">
-        <v>14.225239999999999</v>
-      </c>
-      <c r="J44">
+        <v>19</v>
+      </c>
+      <c r="H44">
         <v>1.24</v>
       </c>
-      <c r="K44" t="s">
-        <v>85</v>
-      </c>
-      <c r="L44" t="s">
-        <v>23</v>
+      <c r="I44" t="s">
+        <v>84</v>
+      </c>
+      <c r="J44" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
